--- a/Dbt_Course_Plan.xlsx
+++ b/Dbt_Course_Plan.xlsx
@@ -5,18 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dictm382\course\dbt_training_jan2025_resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dictm382\course\dbt_training_apr_2025_resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E0B4C05-EAB4-4813-A11F-21F4864911C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8FB14E1-7F4C-4C3B-8167-78D44822F0A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{AE97E018-884B-4632-8AE2-90334E5403C8}"/>
+    <workbookView xWindow="10" yWindow="10" windowWidth="19180" windowHeight="10060" xr2:uid="{AE97E018-884B-4632-8AE2-90334E5403C8}"/>
   </bookViews>
   <sheets>
     <sheet name="Course_Progress" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="5" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="142">
   <si>
     <t>Course Introductoin</t>
   </si>
@@ -359,21 +357,6 @@
     <t>Set up and Practice</t>
   </si>
   <si>
-    <t>int.fact_review</t>
-  </si>
-  <si>
-    <t>stg.src_review</t>
-  </si>
-  <si>
-    <t>max(review_dt) = 20th-Oct-2021</t>
-  </si>
-  <si>
-    <t>21st-oct-2021</t>
-  </si>
-  <si>
-    <t>1st sept 2021-1st oct 2021</t>
-  </si>
-  <si>
     <t>Debugging Test and Testing with dbt-expectations:</t>
   </si>
   <si>
@@ -458,9 +441,6 @@
     <t>dbt run -m tag:imp</t>
   </si>
   <si>
-    <t>https://aws.amazon.com/blogs/big-data/create-a-modern-data-platform-using-the-data-build-tool-dbt-in-the-aws-cloud/</t>
-  </si>
-  <si>
     <t>dbt clean</t>
   </si>
   <si>
@@ -476,106 +456,13 @@
     <t>dbt run --empty</t>
   </si>
   <si>
-    <t>dbt cloud -&gt; managing</t>
-  </si>
-  <si>
-    <t>airflow, dagster, apache batch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vm -&gt; ec2 -&gt; deploy your docker image </t>
-  </si>
-  <si>
-    <t>ecr</t>
-  </si>
-  <si>
-    <t>dagster</t>
-  </si>
-  <si>
-    <t>airbnb</t>
-  </si>
-  <si>
-    <t>s3 bucket</t>
-  </si>
-  <si>
-    <t>raw schema snowflake</t>
-  </si>
-  <si>
-    <t>stg</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>dwh</t>
-  </si>
-  <si>
-    <t>dbt</t>
-  </si>
-  <si>
-    <t>dashboard, exposure</t>
-  </si>
-  <si>
-    <t>orchaestration -&gt; airflow</t>
-  </si>
-  <si>
-    <t>dbt cloud</t>
-  </si>
-  <si>
     <t>Important DBT commands</t>
   </si>
   <si>
     <t>to check what all dbt models will run without loading the data</t>
   </si>
   <si>
-    <t>dbt run -m dim_listings</t>
-  </si>
-  <si>
-    <t>dbt run -m +dim_listings</t>
-  </si>
-  <si>
-    <t>dbt run -m +dim_listings --empty</t>
-  </si>
-  <si>
-    <t>dbt run --select dim_listings</t>
-  </si>
-  <si>
-    <t>dbt run -s dim_listings</t>
-  </si>
-  <si>
-    <t>(All 3 are equivalent)</t>
-  </si>
-  <si>
-    <t>Data engineering</t>
-  </si>
-  <si>
-    <t>Transformation pipelines</t>
-  </si>
-  <si>
-    <t>data warehouse</t>
-  </si>
-  <si>
-    <t>snowflake, big query, redshift, databricks</t>
-  </si>
-  <si>
-    <t>orchestration</t>
-  </si>
-  <si>
-    <t>transformation tool</t>
-  </si>
-  <si>
-    <t>DBT</t>
-  </si>
-  <si>
-    <t>airflow, python, container, dockers</t>
-  </si>
-  <si>
-    <t>git - devops</t>
-  </si>
-  <si>
-    <t>jenkins, azure devops</t>
-  </si>
-  <si>
-    <t>data architet</t>
+    <t>Week1</t>
   </si>
 </sst>
 </file>
@@ -632,7 +519,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -655,11 +542,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -686,8 +610,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1005,8 +935,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A3C56AF-FE1B-4AB0-AF24-A78F8F9A772B}">
   <dimension ref="C2:L73"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" zoomScale="90" zoomScaleNormal="103" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="103" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1040,96 +970,66 @@
       <c r="D3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="3">
-        <v>45663</v>
-      </c>
-      <c r="F3" s="3">
-        <v>45663</v>
-      </c>
+      <c r="E3" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="F3" s="3"/>
     </row>
     <row r="4" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C4" s="13"/>
       <c r="D4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="3">
-        <v>45663</v>
-      </c>
-      <c r="F4" s="3">
-        <v>45663</v>
-      </c>
+      <c r="E4" s="17"/>
+      <c r="F4" s="3"/>
     </row>
     <row r="5" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C5" s="13"/>
       <c r="D5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="3">
-        <v>45663</v>
-      </c>
-      <c r="F5" s="3">
-        <v>45663</v>
-      </c>
+      <c r="E5" s="17"/>
+      <c r="F5" s="3"/>
     </row>
     <row r="6" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C6" s="13"/>
       <c r="D6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="3">
-        <v>45663</v>
-      </c>
-      <c r="F6" s="3">
-        <v>45663</v>
-      </c>
+      <c r="E6" s="17"/>
+      <c r="F6" s="3"/>
     </row>
     <row r="7" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C7" s="13"/>
       <c r="D7" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="3">
-        <v>45663</v>
-      </c>
-      <c r="F7" s="3">
-        <v>45663</v>
-      </c>
+      <c r="E7" s="17"/>
+      <c r="F7" s="3"/>
     </row>
     <row r="8" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C8" s="13"/>
       <c r="D8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="3">
-        <v>45663</v>
-      </c>
-      <c r="F8" s="3">
-        <v>45663</v>
-      </c>
+      <c r="E8" s="17"/>
+      <c r="F8" s="3"/>
     </row>
     <row r="9" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C9" s="13"/>
       <c r="D9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="3">
-        <v>45663</v>
-      </c>
-      <c r="F9" s="3">
-        <v>45663</v>
-      </c>
+      <c r="E9" s="17"/>
+      <c r="F9" s="3"/>
     </row>
     <row r="10" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C10" s="13"/>
       <c r="D10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="3">
-        <v>45663</v>
-      </c>
-      <c r="F10" s="3">
-        <v>45663</v>
-      </c>
+      <c r="E10" s="17"/>
+      <c r="F10" s="3"/>
     </row>
     <row r="11" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C11" s="14" t="s">
@@ -1138,86 +1038,58 @@
       <c r="D11" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="3">
-        <v>45663</v>
-      </c>
-      <c r="F11" s="3">
-        <v>45664</v>
-      </c>
+      <c r="E11" s="17"/>
+      <c r="F11" s="3"/>
     </row>
     <row r="12" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C12" s="14"/>
       <c r="D12" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="3">
-        <v>45663</v>
-      </c>
-      <c r="F12" s="3">
-        <v>45663</v>
-      </c>
+      <c r="E12" s="17"/>
+      <c r="F12" s="3"/>
     </row>
     <row r="13" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C13" s="14"/>
       <c r="D13" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="3">
-        <v>45664</v>
-      </c>
-      <c r="F13" s="3">
-        <v>45664</v>
-      </c>
+      <c r="E13" s="17"/>
+      <c r="F13" s="3"/>
     </row>
     <row r="14" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C14" s="14"/>
       <c r="D14" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="3">
-        <v>45664</v>
-      </c>
-      <c r="F14" s="3">
-        <v>45664</v>
-      </c>
+      <c r="E14" s="17"/>
+      <c r="F14" s="3"/>
     </row>
     <row r="15" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C15" s="14"/>
       <c r="D15" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E15" s="3">
-        <v>45664</v>
-      </c>
-      <c r="F15" s="3">
-        <v>45664</v>
-      </c>
+      <c r="E15" s="17"/>
+      <c r="F15" s="3"/>
     </row>
     <row r="16" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C16" s="14"/>
       <c r="D16" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E16" s="3">
-        <v>45664</v>
-      </c>
-      <c r="F16" s="3">
-        <v>45664</v>
-      </c>
+      <c r="E16" s="17"/>
+      <c r="F16" s="3"/>
     </row>
     <row r="17" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C17" s="14"/>
       <c r="D17" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E17" s="3">
-        <v>45664</v>
-      </c>
-      <c r="F17" s="3">
-        <v>45664</v>
-      </c>
+      <c r="E17" s="18"/>
+      <c r="F17" s="3"/>
       <c r="K17" t="s">
-        <v>160</v>
+        <v>139</v>
       </c>
     </row>
     <row r="18" spans="3:12" x14ac:dyDescent="0.35">
@@ -1227,14 +1099,10 @@
       <c r="D18" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E18" s="3">
-        <v>45665</v>
-      </c>
-      <c r="F18" s="3">
-        <v>45665</v>
-      </c>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
       <c r="K18" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="19" spans="3:12" x14ac:dyDescent="0.35">
@@ -1242,17 +1110,13 @@
       <c r="D19" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E19" s="3">
-        <v>45665</v>
-      </c>
-      <c r="F19" s="3">
-        <v>45665</v>
-      </c>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
       <c r="K19" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="L19" s="10" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="20" spans="3:12" x14ac:dyDescent="0.35">
@@ -1260,14 +1124,10 @@
       <c r="D20" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E20" s="3">
-        <v>45665</v>
-      </c>
-      <c r="F20" s="3">
-        <v>45665</v>
-      </c>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
       <c r="K20" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="21" spans="3:12" x14ac:dyDescent="0.35">
@@ -1275,14 +1135,10 @@
       <c r="D21" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E21" s="3">
-        <v>45666</v>
-      </c>
-      <c r="F21" s="3">
-        <v>45666</v>
-      </c>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
       <c r="K21" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="22" spans="3:12" x14ac:dyDescent="0.35">
@@ -1290,14 +1146,10 @@
       <c r="D22" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E22" s="3">
-        <v>45666</v>
-      </c>
-      <c r="F22" s="3">
-        <v>45666</v>
-      </c>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
       <c r="K22" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="23" spans="3:12" x14ac:dyDescent="0.35">
@@ -1305,14 +1157,10 @@
       <c r="D23" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E23" s="3">
-        <v>45666</v>
-      </c>
-      <c r="F23" s="3">
-        <v>45666</v>
-      </c>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
       <c r="K23" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="24" spans="3:12" x14ac:dyDescent="0.35">
@@ -1320,14 +1168,10 @@
       <c r="D24" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E24" s="3">
-        <v>45666</v>
-      </c>
-      <c r="F24" s="3">
-        <v>45666</v>
-      </c>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
       <c r="K24" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="25" spans="3:12" x14ac:dyDescent="0.35">
@@ -1335,15 +1179,11 @@
       <c r="D25" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E25" s="3">
-        <v>45670</v>
-      </c>
-      <c r="F25" s="3">
-        <v>45671</v>
-      </c>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
       <c r="I25" s="15"/>
       <c r="K25" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="26" spans="3:12" x14ac:dyDescent="0.35">
@@ -1351,15 +1191,11 @@
       <c r="D26" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E26" s="3">
-        <v>45670</v>
-      </c>
-      <c r="F26" s="3">
-        <v>45670</v>
-      </c>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
       <c r="I26" s="15"/>
       <c r="K26" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="27" spans="3:12" x14ac:dyDescent="0.35">
@@ -1367,14 +1203,10 @@
       <c r="D27" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E27" s="3">
-        <v>45671</v>
-      </c>
-      <c r="F27" s="3">
-        <v>45671</v>
-      </c>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
       <c r="K27" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="28" spans="3:12" x14ac:dyDescent="0.35">
@@ -1382,15 +1214,11 @@
       <c r="D28" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E28" s="3">
-        <v>45671</v>
-      </c>
-      <c r="F28" s="3">
-        <v>45671</v>
-      </c>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
       <c r="H28" s="10"/>
       <c r="K28" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="29" spans="3:12" x14ac:dyDescent="0.35">
@@ -1398,14 +1226,10 @@
       <c r="D29" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E29" s="3">
-        <v>45671</v>
-      </c>
-      <c r="F29" s="3">
-        <v>45671</v>
-      </c>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
       <c r="K29" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="30" spans="3:12" x14ac:dyDescent="0.35">
@@ -1413,14 +1237,10 @@
       <c r="D30" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E30" s="3">
-        <v>45672</v>
-      </c>
-      <c r="F30" s="3">
-        <v>45672</v>
-      </c>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
       <c r="K30" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="31" spans="3:12" x14ac:dyDescent="0.35">
@@ -1428,14 +1248,10 @@
       <c r="D31" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E31" s="3">
-        <v>45673</v>
-      </c>
-      <c r="F31" s="3">
-        <v>45673</v>
-      </c>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
       <c r="K31" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="32" spans="3:12" x14ac:dyDescent="0.35">
@@ -1443,14 +1259,10 @@
       <c r="D32" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E32" s="3">
-        <v>45673</v>
-      </c>
-      <c r="F32" s="3">
-        <v>45678</v>
-      </c>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
       <c r="K32" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="33" spans="3:12" x14ac:dyDescent="0.35">
@@ -1458,14 +1270,10 @@
       <c r="D33" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E33" s="3">
-        <v>45678</v>
-      </c>
-      <c r="F33" s="3">
-        <v>45679</v>
-      </c>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
       <c r="K33" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
     <row r="34" spans="3:12" x14ac:dyDescent="0.35">
@@ -1473,227 +1281,155 @@
         <v>35</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="E34" s="3">
-        <v>45680</v>
-      </c>
-      <c r="F34" s="3">
-        <v>45681</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
       <c r="K34" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
     </row>
     <row r="35" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C35" s="13"/>
       <c r="D35" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="E35" s="3">
-        <v>45680</v>
-      </c>
-      <c r="F35" s="3">
-        <v>45680</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
       <c r="K35" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="L35" t="s">
-        <v>161</v>
+        <v>140</v>
       </c>
     </row>
     <row r="36" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C36" s="13"/>
       <c r="D36" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="E36" s="3">
-        <v>45680</v>
-      </c>
-      <c r="F36" s="3">
-        <v>45680</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
     </row>
     <row r="37" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C37" s="13"/>
       <c r="D37" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="E37" s="3">
-        <v>45680</v>
-      </c>
-      <c r="F37" s="3">
-        <v>45680</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
     </row>
     <row r="38" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C38" s="13"/>
       <c r="D38" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="E38" s="3">
-        <v>45680</v>
-      </c>
-      <c r="F38" s="3">
-        <v>45680</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
     </row>
     <row r="39" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C39" s="13"/>
       <c r="D39" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="E39" s="3">
-        <v>45680</v>
-      </c>
-      <c r="F39" s="3">
-        <v>45680</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
     </row>
     <row r="40" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C40" s="13"/>
       <c r="D40" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="E40" s="3">
-        <v>45681</v>
-      </c>
-      <c r="F40" s="3">
-        <v>45681</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
     </row>
     <row r="41" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C41" s="13"/>
       <c r="D41" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E41" s="3">
-        <v>45679</v>
-      </c>
-      <c r="F41" s="3">
-        <v>45679</v>
-      </c>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
     </row>
     <row r="42" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C42" s="13"/>
       <c r="D42" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="E42" s="3">
-        <v>45679</v>
-      </c>
-      <c r="F42" s="3">
-        <v>45680</v>
-      </c>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
     </row>
     <row r="43" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C43" s="13"/>
       <c r="D43" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="E43" s="3">
-        <v>45681</v>
-      </c>
-      <c r="F43" s="3">
-        <v>45681</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
     </row>
     <row r="44" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C44" s="13"/>
       <c r="D44" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="E44" s="3">
-        <v>45681</v>
-      </c>
-      <c r="F44" s="3">
-        <v>45681</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
     </row>
     <row r="45" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C45" s="13"/>
       <c r="D45" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="E45" s="3">
-        <v>45681</v>
-      </c>
-      <c r="F45" s="3">
-        <v>45681</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
     </row>
     <row r="46" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C46" s="13"/>
       <c r="D46" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="E46" s="3">
-        <v>45684</v>
-      </c>
-      <c r="F46" s="3">
-        <v>45684</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
     </row>
     <row r="47" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C47" s="13"/>
       <c r="D47" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="E47" s="3">
-        <v>45684</v>
-      </c>
-      <c r="F47" s="3">
-        <v>45686</v>
-      </c>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
     </row>
     <row r="48" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C48" s="13"/>
       <c r="D48" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E48" s="3">
-        <v>45684</v>
-      </c>
-      <c r="F48" s="3">
-        <v>45686</v>
-      </c>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
     </row>
     <row r="49" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C49" s="13"/>
       <c r="D49" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E49" s="3">
-        <v>45685</v>
-      </c>
-      <c r="F49" s="3">
-        <v>45685</v>
-      </c>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
     </row>
     <row r="50" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C50" s="13"/>
       <c r="D50" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="E50" s="3">
-        <v>45686</v>
-      </c>
-      <c r="F50" s="3">
-        <v>45687</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
     </row>
     <row r="51" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C51" s="13"/>
       <c r="D51" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E51" s="3">
-        <v>45688</v>
-      </c>
-      <c r="F51" s="3">
-        <v>45688</v>
-      </c>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
     </row>
     <row r="52" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C52" s="8"/>
@@ -1705,7 +1441,7 @@
     </row>
     <row r="53" spans="3:8" x14ac:dyDescent="0.35">
       <c r="D53" s="11" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="E53" s="12"/>
       <c r="F53" s="1"/>
@@ -1713,7 +1449,7 @@
     </row>
     <row r="54" spans="3:8" x14ac:dyDescent="0.35">
       <c r="D54" s="11" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="E54" s="12"/>
       <c r="F54" s="1"/>
@@ -1811,12 +1547,13 @@
       <c r="F73" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="C3:C10"/>
     <mergeCell ref="C11:C17"/>
     <mergeCell ref="C18:C33"/>
     <mergeCell ref="C34:C51"/>
     <mergeCell ref="I25:I26"/>
+    <mergeCell ref="E3:E17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1824,220 +1561,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B639DFEE-E892-432F-B1F2-BDFC6D1C85EE}">
-  <dimension ref="A3:I19"/>
-  <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="123" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="5" max="5" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33.7265625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="28.26953125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="E3" t="s">
-        <v>107</v>
-      </c>
-      <c r="F3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="I4" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="E5" t="s">
-        <v>106</v>
-      </c>
-      <c r="F5" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="I10" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="F12" t="s">
-        <v>145</v>
-      </c>
-      <c r="I12" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="I13" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="F14" t="s">
-        <v>149</v>
-      </c>
-      <c r="H14" s="16" t="s">
-        <v>156</v>
-      </c>
-      <c r="I14" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="F15" t="s">
-        <v>146</v>
-      </c>
-      <c r="H15" s="16"/>
-      <c r="I15" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="H16" s="16"/>
-      <c r="I16" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="17" spans="6:9" x14ac:dyDescent="0.35">
-      <c r="F17" t="s">
-        <v>147</v>
-      </c>
-      <c r="I17" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="18" spans="6:9" x14ac:dyDescent="0.35">
-      <c r="F18" t="s">
-        <v>148</v>
-      </c>
-      <c r="I18" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="19" spans="6:9" x14ac:dyDescent="0.35">
-      <c r="I19" t="s">
-        <v>159</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="H14:H16"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C942035A-3DCE-4A5E-82FF-DDF0DF09F5A9}">
-  <dimension ref="C3:F14"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="3" max="3" width="28.36328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34" customWidth="1"/>
-    <col min="6" max="6" width="40.7265625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C3" t="s">
-        <v>162</v>
-      </c>
-      <c r="D3" t="s">
-        <v>165</v>
-      </c>
-      <c r="E3" t="s">
-        <v>166</v>
-      </c>
-      <c r="F3" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="4" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C4" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="5" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C5" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="6" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C6" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="10" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C10" t="s">
-        <v>168</v>
-      </c>
-      <c r="D10" t="s">
-        <v>169</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="11" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C11" t="s">
-        <v>170</v>
-      </c>
-      <c r="D11" t="s">
-        <v>171</v>
-      </c>
-      <c r="E11" s="15"/>
-    </row>
-    <row r="12" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C12" t="s">
-        <v>172</v>
-      </c>
-      <c r="D12" t="s">
-        <v>175</v>
-      </c>
-      <c r="E12" s="15"/>
-    </row>
-    <row r="13" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C13" t="s">
-        <v>173</v>
-      </c>
-      <c r="D13" t="s">
-        <v>174</v>
-      </c>
-      <c r="E13" s="15"/>
-    </row>
-    <row r="14" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C14" t="s">
-        <v>176</v>
-      </c>
-      <c r="D14" t="s">
-        <v>177</v>
-      </c>
-      <c r="E14" s="15"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="E10:E14"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45C80CEB-109E-43F8-8A0C-5A9E31958CB8}">
   <dimension ref="A3:P55"/>
   <sheetViews>

--- a/Dbt_Course_Plan.xlsx
+++ b/Dbt_Course_Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dictm382\course\dbt_training_apr_2025_resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8FB14E1-7F4C-4C3B-8167-78D44822F0A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8B455B9-EC2E-4AC5-9773-81F04A0BDBD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10" yWindow="10" windowWidth="19180" windowHeight="10060" xr2:uid="{AE97E018-884B-4632-8AE2-90334E5403C8}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="143">
   <si>
     <t>Course Introductoin</t>
   </si>
@@ -463,6 +463,9 @@
   </si>
   <si>
     <t>Week1</t>
+  </si>
+  <si>
+    <t>Week 2</t>
   </si>
 </sst>
 </file>
@@ -472,7 +475,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -935,11 +938,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A3C56AF-FE1B-4AB0-AF24-A78F8F9A772B}">
   <dimension ref="C2:L73"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="103" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="69" zoomScaleNormal="103" workbookViewId="0">
+      <selection activeCell="I30" sqref="I12:I30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="3" max="3" width="21.90625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="57" bestFit="1" customWidth="1"/>
@@ -949,7 +952,7 @@
     <col min="12" max="12" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:6" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="3:6" s="7" customFormat="1">
       <c r="C2" s="4" t="s">
         <v>23</v>
       </c>
@@ -963,7 +966,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="3:6">
       <c r="C3" s="13" t="s">
         <v>9</v>
       </c>
@@ -975,7 +978,7 @@
       </c>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="3:6">
       <c r="C4" s="13"/>
       <c r="D4" s="5" t="s">
         <v>1</v>
@@ -983,7 +986,7 @@
       <c r="E4" s="17"/>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="3:6">
       <c r="C5" s="13"/>
       <c r="D5" s="5" t="s">
         <v>2</v>
@@ -991,7 +994,7 @@
       <c r="E5" s="17"/>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="3:6">
       <c r="C6" s="13"/>
       <c r="D6" s="5" t="s">
         <v>3</v>
@@ -999,7 +1002,7 @@
       <c r="E6" s="17"/>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="3:6">
       <c r="C7" s="13"/>
       <c r="D7" s="5" t="s">
         <v>4</v>
@@ -1007,7 +1010,7 @@
       <c r="E7" s="17"/>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="3:6">
       <c r="C8" s="13"/>
       <c r="D8" s="5" t="s">
         <v>5</v>
@@ -1015,7 +1018,7 @@
       <c r="E8" s="17"/>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="3:6">
       <c r="C9" s="13"/>
       <c r="D9" s="5" t="s">
         <v>6</v>
@@ -1023,7 +1026,7 @@
       <c r="E9" s="17"/>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="3:6">
       <c r="C10" s="13"/>
       <c r="D10" s="5" t="s">
         <v>7</v>
@@ -1031,7 +1034,7 @@
       <c r="E10" s="17"/>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="3:6">
       <c r="C11" s="14" t="s">
         <v>105</v>
       </c>
@@ -1041,7 +1044,7 @@
       <c r="E11" s="17"/>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="3:6">
       <c r="C12" s="14"/>
       <c r="D12" s="5" t="s">
         <v>11</v>
@@ -1049,7 +1052,7 @@
       <c r="E12" s="17"/>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="3:6">
       <c r="C13" s="14"/>
       <c r="D13" s="5" t="s">
         <v>12</v>
@@ -1057,7 +1060,7 @@
       <c r="E13" s="17"/>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="3:6">
       <c r="C14" s="14"/>
       <c r="D14" s="5" t="s">
         <v>13</v>
@@ -1065,7 +1068,7 @@
       <c r="E14" s="17"/>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="3:6">
       <c r="C15" s="14"/>
       <c r="D15" s="5" t="s">
         <v>21</v>
@@ -1073,7 +1076,7 @@
       <c r="E15" s="17"/>
       <c r="F15" s="3"/>
     </row>
-    <row r="16" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="3:6">
       <c r="C16" s="14"/>
       <c r="D16" s="5" t="s">
         <v>8</v>
@@ -1081,7 +1084,7 @@
       <c r="E16" s="17"/>
       <c r="F16" s="3"/>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="3:12">
       <c r="C17" s="14"/>
       <c r="D17" s="5" t="s">
         <v>14</v>
@@ -1092,25 +1095,27 @@
         <v>139</v>
       </c>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="3:12">
       <c r="C18" s="13" t="s">
         <v>104</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E18" s="3"/>
+      <c r="E18" s="16" t="s">
+        <v>142</v>
+      </c>
       <c r="F18" s="3"/>
       <c r="K18" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="3:12">
       <c r="C19" s="13"/>
       <c r="D19" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E19" s="3"/>
+      <c r="E19" s="17"/>
       <c r="F19" s="3"/>
       <c r="K19" t="s">
         <v>123</v>
@@ -1119,40 +1124,40 @@
         <v>121</v>
       </c>
     </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="3:12">
       <c r="C20" s="13"/>
       <c r="D20" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E20" s="3"/>
+      <c r="E20" s="17"/>
       <c r="F20" s="3"/>
       <c r="K20" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="3:12">
       <c r="C21" s="13"/>
       <c r="D21" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E21" s="3"/>
+      <c r="E21" s="17"/>
       <c r="F21" s="3"/>
       <c r="K21" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="3:12">
       <c r="C22" s="13"/>
       <c r="D22" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E22" s="3"/>
+      <c r="E22" s="18"/>
       <c r="F22" s="3"/>
       <c r="K22" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="3:12">
       <c r="C23" s="13"/>
       <c r="D23" s="5" t="s">
         <v>30</v>
@@ -1163,7 +1168,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="3:12">
       <c r="C24" s="13"/>
       <c r="D24" s="5" t="s">
         <v>42</v>
@@ -1174,7 +1179,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="3:12">
       <c r="C25" s="13"/>
       <c r="D25" s="5" t="s">
         <v>31</v>
@@ -1186,7 +1191,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="26" spans="3:12">
       <c r="C26" s="13"/>
       <c r="D26" s="5" t="s">
         <v>18</v>
@@ -1198,7 +1203,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="27" spans="3:12">
       <c r="C27" s="13"/>
       <c r="D27" s="5" t="s">
         <v>24</v>
@@ -1209,7 +1214,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="28" spans="3:12">
       <c r="C28" s="13"/>
       <c r="D28" s="5" t="s">
         <v>25</v>
@@ -1221,7 +1226,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="29" spans="3:12">
       <c r="C29" s="13"/>
       <c r="D29" s="5" t="s">
         <v>26</v>
@@ -1232,7 +1237,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="30" spans="3:12">
       <c r="C30" s="13"/>
       <c r="D30" s="5" t="s">
         <v>27</v>
@@ -1243,7 +1248,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="31" spans="3:12">
       <c r="C31" s="13"/>
       <c r="D31" s="5" t="s">
         <v>32</v>
@@ -1254,7 +1259,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="32" spans="3:12">
       <c r="C32" s="13"/>
       <c r="D32" s="5" t="s">
         <v>33</v>
@@ -1265,7 +1270,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="33" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="33" spans="3:12">
       <c r="C33" s="13"/>
       <c r="D33" s="5" t="s">
         <v>34</v>
@@ -1276,7 +1281,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="34" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="34" spans="3:12">
       <c r="C34" s="13" t="s">
         <v>35</v>
       </c>
@@ -1289,7 +1294,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="35" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="35" spans="3:12">
       <c r="C35" s="13"/>
       <c r="D35" s="5" t="s">
         <v>107</v>
@@ -1303,7 +1308,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="36" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="36" spans="3:12">
       <c r="C36" s="13"/>
       <c r="D36" s="5" t="s">
         <v>108</v>
@@ -1311,7 +1316,7 @@
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
     </row>
-    <row r="37" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="37" spans="3:12">
       <c r="C37" s="13"/>
       <c r="D37" s="5" t="s">
         <v>109</v>
@@ -1319,7 +1324,7 @@
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
     </row>
-    <row r="38" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="38" spans="3:12">
       <c r="C38" s="13"/>
       <c r="D38" s="5" t="s">
         <v>110</v>
@@ -1327,7 +1332,7 @@
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
     </row>
-    <row r="39" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="39" spans="3:12">
       <c r="C39" s="13"/>
       <c r="D39" s="5" t="s">
         <v>111</v>
@@ -1335,7 +1340,7 @@
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
     </row>
-    <row r="40" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="40" spans="3:12">
       <c r="C40" s="13"/>
       <c r="D40" s="5" t="s">
         <v>112</v>
@@ -1343,7 +1348,7 @@
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
     </row>
-    <row r="41" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="41" spans="3:12">
       <c r="C41" s="13"/>
       <c r="D41" s="5" t="s">
         <v>36</v>
@@ -1351,7 +1356,7 @@
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
     </row>
-    <row r="42" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="42" spans="3:12">
       <c r="C42" s="13"/>
       <c r="D42" s="5" t="s">
         <v>37</v>
@@ -1359,7 +1364,7 @@
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
     </row>
-    <row r="43" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="43" spans="3:12">
       <c r="C43" s="13"/>
       <c r="D43" s="5" t="s">
         <v>113</v>
@@ -1367,7 +1372,7 @@
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
     </row>
-    <row r="44" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="44" spans="3:12">
       <c r="C44" s="13"/>
       <c r="D44" s="5" t="s">
         <v>114</v>
@@ -1375,7 +1380,7 @@
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
     </row>
-    <row r="45" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="45" spans="3:12">
       <c r="C45" s="13"/>
       <c r="D45" s="5" t="s">
         <v>115</v>
@@ -1383,7 +1388,7 @@
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
     </row>
-    <row r="46" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="46" spans="3:12">
       <c r="C46" s="13"/>
       <c r="D46" s="5" t="s">
         <v>116</v>
@@ -1391,7 +1396,7 @@
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
     </row>
-    <row r="47" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="47" spans="3:12">
       <c r="C47" s="13"/>
       <c r="D47" s="5" t="s">
         <v>40</v>
@@ -1399,7 +1404,7 @@
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
     </row>
-    <row r="48" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="48" spans="3:12">
       <c r="C48" s="13"/>
       <c r="D48" s="5" t="s">
         <v>39</v>
@@ -1407,7 +1412,7 @@
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
     </row>
-    <row r="49" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="49" spans="3:8">
       <c r="C49" s="13"/>
       <c r="D49" s="5" t="s">
         <v>38</v>
@@ -1415,7 +1420,7 @@
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
     </row>
-    <row r="50" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="50" spans="3:8">
       <c r="C50" s="13"/>
       <c r="D50" s="5" t="s">
         <v>117</v>
@@ -1423,7 +1428,7 @@
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
     </row>
-    <row r="51" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="51" spans="3:8">
       <c r="C51" s="13"/>
       <c r="D51" s="5" t="s">
         <v>41</v>
@@ -1431,7 +1436,7 @@
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
     </row>
-    <row r="52" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="52" spans="3:8">
       <c r="C52" s="8"/>
       <c r="D52" s="8"/>
       <c r="E52" s="9"/>
@@ -1439,7 +1444,7 @@
       <c r="G52" s="8"/>
       <c r="H52" s="8"/>
     </row>
-    <row r="53" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="53" spans="3:8">
       <c r="D53" s="11" t="s">
         <v>135</v>
       </c>
@@ -1447,7 +1452,7 @@
       <c r="F53" s="1"/>
       <c r="H53" s="8"/>
     </row>
-    <row r="54" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="54" spans="3:8">
       <c r="D54" s="11" t="s">
         <v>136</v>
       </c>
@@ -1455,42 +1460,42 @@
       <c r="F54" s="1"/>
       <c r="H54" s="8"/>
     </row>
-    <row r="55" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="55" spans="3:8">
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
       <c r="H55" s="8"/>
     </row>
-    <row r="56" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="56" spans="3:8">
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
       <c r="H56" s="8"/>
     </row>
-    <row r="57" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="57" spans="3:8">
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
       <c r="H57" s="8"/>
     </row>
-    <row r="58" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="58" spans="3:8">
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
       <c r="H58" s="8"/>
     </row>
-    <row r="59" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="59" spans="3:8">
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
       <c r="H59" s="8"/>
     </row>
-    <row r="60" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="60" spans="3:8">
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
       <c r="H60" s="8"/>
     </row>
-    <row r="61" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="61" spans="3:8">
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
       <c r="H61" s="8"/>
     </row>
-    <row r="62" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="62" spans="3:8">
       <c r="C62" s="8"/>
       <c r="D62" s="8"/>
       <c r="E62" s="9"/>
@@ -1498,7 +1503,7 @@
       <c r="G62" s="8"/>
       <c r="H62" s="8"/>
     </row>
-    <row r="63" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="63" spans="3:8">
       <c r="C63" s="8"/>
       <c r="D63" s="8"/>
       <c r="E63" s="9"/>
@@ -1506,54 +1511,55 @@
       <c r="G63" s="8"/>
       <c r="H63" s="8"/>
     </row>
-    <row r="64" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="64" spans="3:8">
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
     </row>
-    <row r="65" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="65" spans="5:6">
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
     </row>
-    <row r="66" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="66" spans="5:6">
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
     </row>
-    <row r="67" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="67" spans="5:6">
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
     </row>
-    <row r="68" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="68" spans="5:6">
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
     </row>
-    <row r="69" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="69" spans="5:6">
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
     </row>
-    <row r="70" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="70" spans="5:6">
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
     </row>
-    <row r="71" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="71" spans="5:6">
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
     </row>
-    <row r="72" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="72" spans="5:6">
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
     </row>
-    <row r="73" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="73" spans="5:6">
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
     <mergeCell ref="C3:C10"/>
     <mergeCell ref="C11:C17"/>
     <mergeCell ref="C18:C33"/>
     <mergeCell ref="C34:C51"/>
     <mergeCell ref="I25:I26"/>
     <mergeCell ref="E3:E17"/>
+    <mergeCell ref="E18:E22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1568,7 +1574,7 @@
       <selection activeCell="I43" sqref="I43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="4" max="4" width="11.7265625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23.1796875" bestFit="1" customWidth="1"/>
@@ -1578,7 +1584,7 @@
     <col min="14" max="14" width="40.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14">
       <c r="D3" t="s">
         <v>81</v>
       </c>
@@ -1586,7 +1592,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14">
       <c r="D5" t="s">
         <v>43</v>
       </c>
@@ -1615,7 +1621,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14">
       <c r="D6">
         <v>1</v>
       </c>
@@ -1644,7 +1650,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14">
       <c r="D7">
         <v>2</v>
       </c>
@@ -1670,7 +1676,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14">
       <c r="D8">
         <v>3</v>
       </c>
@@ -1699,7 +1705,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14">
       <c r="D9">
         <v>86730</v>
       </c>
@@ -1728,12 +1734,12 @@
         <v>62</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14">
       <c r="D10">
         <v>98000</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14">
       <c r="D11">
         <v>98001</v>
       </c>
@@ -1741,7 +1747,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14">
       <c r="A12" t="s">
         <v>82</v>
       </c>
@@ -1767,7 +1773,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14">
       <c r="L13">
         <v>1</v>
       </c>
@@ -1775,7 +1781,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14">
       <c r="L14">
         <v>2</v>
       </c>
@@ -1783,7 +1789,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14">
       <c r="D15" t="s">
         <v>71</v>
       </c>
@@ -1794,7 +1800,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14">
       <c r="D16">
         <v>3</v>
       </c>
@@ -1820,7 +1826,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="19" spans="4:16" x14ac:dyDescent="0.35">
+    <row r="19" spans="4:16">
       <c r="D19">
         <v>4</v>
       </c>
@@ -1834,7 +1840,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="22" spans="4:16" x14ac:dyDescent="0.35">
+    <row r="22" spans="4:16">
       <c r="D22">
         <v>98000</v>
       </c>
@@ -1854,7 +1860,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="23" spans="4:16" x14ac:dyDescent="0.35">
+    <row r="23" spans="4:16">
       <c r="D23">
         <v>98001</v>
       </c>
@@ -1877,7 +1883,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="24" spans="4:16" x14ac:dyDescent="0.35">
+    <row r="24" spans="4:16">
       <c r="L24">
         <v>6738</v>
       </c>
@@ -1894,7 +1900,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="28" spans="4:16" x14ac:dyDescent="0.35">
+    <row r="28" spans="4:16">
       <c r="L28" s="2" t="s">
         <v>81</v>
       </c>
@@ -1905,7 +1911,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="29" spans="4:16" x14ac:dyDescent="0.35">
+    <row r="29" spans="4:16">
       <c r="L29" s="2" t="s">
         <v>92</v>
       </c>
@@ -1914,7 +1920,7 @@
       <c r="O29" s="2"/>
       <c r="P29" s="2"/>
     </row>
-    <row r="30" spans="4:16" x14ac:dyDescent="0.35">
+    <row r="30" spans="4:16">
       <c r="D30" t="s">
         <v>63</v>
       </c>
@@ -1934,7 +1940,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="31" spans="4:16" x14ac:dyDescent="0.35">
+    <row r="31" spans="4:16">
       <c r="D31" t="s">
         <v>64</v>
       </c>
@@ -1947,7 +1953,7 @@
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
     </row>
-    <row r="32" spans="4:16" x14ac:dyDescent="0.35">
+    <row r="32" spans="4:16">
       <c r="D32">
         <v>1</v>
       </c>
@@ -1959,7 +1965,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="33" spans="4:16" x14ac:dyDescent="0.35">
+    <row r="33" spans="4:16">
       <c r="D33">
         <v>2</v>
       </c>
@@ -1969,7 +1975,7 @@
       <c r="O33" s="2"/>
       <c r="P33" s="2"/>
     </row>
-    <row r="34" spans="4:16" x14ac:dyDescent="0.35">
+    <row r="34" spans="4:16">
       <c r="D34">
         <v>950328</v>
       </c>
@@ -1982,7 +1988,7 @@
       <c r="O34" s="2"/>
       <c r="P34" s="2"/>
     </row>
-    <row r="35" spans="4:16" x14ac:dyDescent="0.35">
+    <row r="35" spans="4:16">
       <c r="L35" s="2">
         <v>6738</v>
       </c>
@@ -1999,14 +2005,14 @@
         <v>67</v>
       </c>
     </row>
-    <row r="36" spans="4:16" x14ac:dyDescent="0.35">
+    <row r="36" spans="4:16">
       <c r="L36" s="2"/>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
       <c r="P36" s="2"/>
     </row>
-    <row r="37" spans="4:16" x14ac:dyDescent="0.35">
+    <row r="37" spans="4:16">
       <c r="D37">
         <v>3</v>
       </c>
@@ -2026,7 +2032,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="38" spans="4:16" x14ac:dyDescent="0.35">
+    <row r="38" spans="4:16">
       <c r="D38">
         <v>4</v>
       </c>
@@ -2043,7 +2049,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="39" spans="4:16" x14ac:dyDescent="0.35">
+    <row r="39" spans="4:16">
       <c r="D39">
         <v>98000</v>
       </c>
@@ -2051,7 +2057,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="40" spans="4:16" x14ac:dyDescent="0.35">
+    <row r="40" spans="4:16">
       <c r="D40">
         <v>98001</v>
       </c>
@@ -2062,22 +2068,22 @@
         <v>101</v>
       </c>
     </row>
-    <row r="41" spans="4:16" x14ac:dyDescent="0.35">
+    <row r="41" spans="4:16">
       <c r="L41" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="42" spans="4:16" x14ac:dyDescent="0.35">
+    <row r="42" spans="4:16">
       <c r="L42" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="43" spans="4:16" x14ac:dyDescent="0.35">
+    <row r="43" spans="4:16">
       <c r="L43" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="44" spans="4:16" x14ac:dyDescent="0.35">
+    <row r="44" spans="4:16">
       <c r="F44" t="s">
         <v>73</v>
       </c>
@@ -2091,17 +2097,17 @@
         <v>96</v>
       </c>
     </row>
-    <row r="45" spans="4:16" x14ac:dyDescent="0.35">
+    <row r="45" spans="4:16">
       <c r="L45" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="46" spans="4:16" x14ac:dyDescent="0.35">
+    <row r="46" spans="4:16">
       <c r="F46" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="47" spans="4:16" x14ac:dyDescent="0.35">
+    <row r="47" spans="4:16">
       <c r="F47" t="s">
         <v>74</v>
       </c>
@@ -2120,7 +2126,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="48" spans="4:16" x14ac:dyDescent="0.35">
+    <row r="48" spans="4:16">
       <c r="F48" t="s">
         <v>75</v>
       </c>
@@ -2132,7 +2138,7 @@
       <c r="O48" s="2"/>
       <c r="P48" s="2"/>
     </row>
-    <row r="49" spans="12:16" x14ac:dyDescent="0.35">
+    <row r="49" spans="12:16">
       <c r="L49" s="2">
         <v>6738</v>
       </c>
@@ -2149,14 +2155,14 @@
         <v>67</v>
       </c>
     </row>
-    <row r="50" spans="12:16" x14ac:dyDescent="0.35">
+    <row r="50" spans="12:16">
       <c r="L50" s="2"/>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
       <c r="P50" s="2"/>
     </row>
-    <row r="51" spans="12:16" x14ac:dyDescent="0.35">
+    <row r="51" spans="12:16">
       <c r="L51" s="2"/>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -2165,28 +2171,28 @@
         <v>91</v>
       </c>
     </row>
-    <row r="52" spans="12:16" x14ac:dyDescent="0.35">
+    <row r="52" spans="12:16">
       <c r="L52" s="2"/>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
       <c r="P52" s="2"/>
     </row>
-    <row r="53" spans="12:16" x14ac:dyDescent="0.35">
+    <row r="53" spans="12:16">
       <c r="L53" s="2"/>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
       <c r="P53" s="2"/>
     </row>
-    <row r="54" spans="12:16" x14ac:dyDescent="0.35">
+    <row r="54" spans="12:16">
       <c r="L54" s="2"/>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
       <c r="P54" s="2"/>
     </row>
-    <row r="55" spans="12:16" x14ac:dyDescent="0.35">
+    <row r="55" spans="12:16">
       <c r="L55" s="2"/>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>

--- a/Dbt_Course_Plan.xlsx
+++ b/Dbt_Course_Plan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dictm382\course\dbt_training_apr_2025_resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8B455B9-EC2E-4AC5-9773-81F04A0BDBD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23E3E9C4-8681-468D-BC5E-E663AF4C0074}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10" yWindow="10" windowWidth="19180" windowHeight="10060" xr2:uid="{AE97E018-884B-4632-8AE2-90334E5403C8}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{AE97E018-884B-4632-8AE2-90334E5403C8}"/>
   </bookViews>
   <sheets>
     <sheet name="Course_Progress" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="102">
   <si>
     <t>Course Introductoin</t>
   </si>
@@ -117,12 +117,6 @@
     <t>Macros</t>
   </si>
   <si>
-    <t>Custom Tests and packages</t>
-  </si>
-  <si>
-    <t>Dbt Documentation</t>
-  </si>
-  <si>
     <t>Source and ref keyword</t>
   </si>
   <si>
@@ -135,36 +129,9 @@
     <t>Snapshots and SCD2</t>
   </si>
   <si>
-    <t>Analyses</t>
-  </si>
-  <si>
     <t>Hookups - Pre and Post</t>
   </si>
   <si>
-    <t>Exposures</t>
-  </si>
-  <si>
-    <t>DBT - Deep dive</t>
-  </si>
-  <si>
-    <t>Debugging with logging</t>
-  </si>
-  <si>
-    <t>Using Variables</t>
-  </si>
-  <si>
-    <t>Best Practices for dbt in production environment</t>
-  </si>
-  <si>
-    <t>Exercise for completing new dbt project</t>
-  </si>
-  <si>
-    <t>dbt Certification Exam Preparation Guide</t>
-  </si>
-  <si>
-    <t>Conclusion and Further Learning steps in data engineering projects</t>
-  </si>
-  <si>
     <t>Ephemeral materialization</t>
   </si>
   <si>
@@ -357,115 +324,25 @@
     <t>Set up and Practice</t>
   </si>
   <si>
-    <t>Debugging Test and Testing with dbt-expectations:</t>
-  </si>
-  <si>
-    <t>1 - expect_table_row_count_to_equal_other_table</t>
-  </si>
-  <si>
-    <t>2 - expect_column_values_to_be_of_type</t>
-  </si>
-  <si>
-    <t>3 - expect_column_quantile_values_to_be_between</t>
-  </si>
-  <si>
-    <t>4 - expect_column_max_to_be_between</t>
-  </si>
-  <si>
-    <t>5 - expect_column_distinct_count_to_equal</t>
-  </si>
-  <si>
-    <t>6 - Debugging dbt tests and working with regex</t>
-  </si>
-  <si>
-    <t>Overview of orchestration jobs</t>
-  </si>
-  <si>
-    <t>Overview of Popular orchestration tool</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DBT live production project overview </t>
-  </si>
-  <si>
     <t>DBT cloud - migrating project and scheduling jobs</t>
   </si>
   <si>
-    <t>Dbt orchestration with airflow</t>
-  </si>
-  <si>
-    <t>dbt show</t>
-  </si>
-  <si>
-    <t>tags</t>
-  </si>
-  <si>
-    <t>exclude</t>
-  </si>
-  <si>
-    <t>--store-failures</t>
-  </si>
-  <si>
-    <t>dbt run</t>
-  </si>
-  <si>
-    <t>dbt test</t>
-  </si>
-  <si>
-    <t>dbt debug</t>
-  </si>
-  <si>
-    <t>dbt init</t>
-  </si>
-  <si>
-    <t>dbt deps</t>
-  </si>
-  <si>
-    <t>dbt build</t>
-  </si>
-  <si>
-    <t>dbt compile</t>
-  </si>
-  <si>
-    <t>dbt snapshot</t>
-  </si>
-  <si>
-    <t>dbt seeds</t>
-  </si>
-  <si>
-    <t>dbt docs generate</t>
-  </si>
-  <si>
-    <t>dbt run -m tag:imp --exclude src_listings</t>
-  </si>
-  <si>
-    <t>dbt run -m tag:imp</t>
-  </si>
-  <si>
-    <t>dbt clean</t>
-  </si>
-  <si>
-    <t>desription in comment</t>
-  </si>
-  <si>
-    <t>Dbt orchestration with aws batch</t>
-  </si>
-  <si>
-    <t>dbt source fresheness</t>
-  </si>
-  <si>
-    <t>dbt run --empty</t>
-  </si>
-  <si>
-    <t>Important DBT commands</t>
-  </si>
-  <si>
-    <t>to check what all dbt models will run without loading the data</t>
-  </si>
-  <si>
     <t>Week1</t>
   </si>
   <si>
     <t>Week 2</t>
+  </si>
+  <si>
+    <t>Variables</t>
+  </si>
+  <si>
+    <t>Profile.yml</t>
+  </si>
+  <si>
+    <t>Week 3</t>
+  </si>
+  <si>
+    <t>Week 4</t>
   </si>
 </sst>
 </file>
@@ -475,7 +352,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -522,7 +399,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -545,52 +422,14 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -602,8 +441,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -613,13 +450,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -936,13 +767,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A3C56AF-FE1B-4AB0-AF24-A78F8F9A772B}">
-  <dimension ref="C2:L73"/>
+  <dimension ref="C2:L45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="69" zoomScaleNormal="103" workbookViewId="0">
-      <selection activeCell="I30" sqref="I12:I30"/>
+    <sheetView tabSelected="1" topLeftCell="B14" zoomScale="69" zoomScaleNormal="103" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="3" max="3" width="21.90625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="57" bestFit="1" customWidth="1"/>
@@ -952,614 +783,360 @@
     <col min="12" max="12" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:6" s="7" customFormat="1">
-      <c r="C2" s="4" t="s">
+    <row r="2" spans="3:6" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="3:6">
-      <c r="C3" s="13" t="s">
+    <row r="3" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="F3" s="3"/>
-    </row>
-    <row r="4" spans="3:6">
-      <c r="C4" s="13"/>
-      <c r="D4" s="5" t="s">
+      <c r="E3" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C4" s="10"/>
+      <c r="D4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="17"/>
-      <c r="F4" s="3"/>
-    </row>
-    <row r="5" spans="3:6">
-      <c r="C5" s="13"/>
-      <c r="D5" s="5" t="s">
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+    </row>
+    <row r="5" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C5" s="10"/>
+      <c r="D5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="17"/>
-      <c r="F5" s="3"/>
-    </row>
-    <row r="6" spans="3:6">
-      <c r="C6" s="13"/>
-      <c r="D6" s="5" t="s">
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+    </row>
+    <row r="6" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C6" s="10"/>
+      <c r="D6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="17"/>
-      <c r="F6" s="3"/>
-    </row>
-    <row r="7" spans="3:6">
-      <c r="C7" s="13"/>
-      <c r="D7" s="5" t="s">
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+    </row>
+    <row r="7" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C7" s="10"/>
+      <c r="D7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="17"/>
-      <c r="F7" s="3"/>
-    </row>
-    <row r="8" spans="3:6">
-      <c r="C8" s="13"/>
-      <c r="D8" s="5" t="s">
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+    </row>
+    <row r="8" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C8" s="10"/>
+      <c r="D8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="17"/>
-      <c r="F8" s="3"/>
-    </row>
-    <row r="9" spans="3:6">
-      <c r="C9" s="13"/>
-      <c r="D9" s="5" t="s">
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+    </row>
+    <row r="9" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C9" s="10"/>
+      <c r="D9" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="17"/>
-      <c r="F9" s="3"/>
-    </row>
-    <row r="10" spans="3:6">
-      <c r="C10" s="13"/>
-      <c r="D10" s="5" t="s">
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+    </row>
+    <row r="10" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C10" s="10"/>
+      <c r="D10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="17"/>
-      <c r="F10" s="3"/>
-    </row>
-    <row r="11" spans="3:6">
-      <c r="C11" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="D11" s="5" t="s">
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+    </row>
+    <row r="11" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C11" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="17"/>
-      <c r="F11" s="3"/>
-    </row>
-    <row r="12" spans="3:6">
-      <c r="C12" s="14"/>
-      <c r="D12" s="5" t="s">
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+    </row>
+    <row r="12" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C12" s="11"/>
+      <c r="D12" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="17"/>
-      <c r="F12" s="3"/>
-    </row>
-    <row r="13" spans="3:6">
-      <c r="C13" s="14"/>
-      <c r="D13" s="5" t="s">
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+    </row>
+    <row r="13" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C13" s="11"/>
+      <c r="D13" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="17"/>
-      <c r="F13" s="3"/>
-    </row>
-    <row r="14" spans="3:6">
-      <c r="C14" s="14"/>
-      <c r="D14" s="5" t="s">
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+    </row>
+    <row r="14" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C14" s="11"/>
+      <c r="D14" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="17"/>
-      <c r="F14" s="3"/>
-    </row>
-    <row r="15" spans="3:6">
-      <c r="C15" s="14"/>
-      <c r="D15" s="5" t="s">
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+    </row>
+    <row r="15" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C15" s="11"/>
+      <c r="D15" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E15" s="17"/>
-      <c r="F15" s="3"/>
-    </row>
-    <row r="16" spans="3:6">
-      <c r="C16" s="14"/>
-      <c r="D16" s="5" t="s">
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+    </row>
+    <row r="16" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C16" s="11"/>
+      <c r="D16" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E16" s="17"/>
-      <c r="F16" s="3"/>
-    </row>
-    <row r="17" spans="3:12">
-      <c r="C17" s="14"/>
-      <c r="D17" s="5" t="s">
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C17" s="11"/>
+      <c r="D17" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E17" s="18"/>
-      <c r="F17" s="3"/>
-      <c r="K17" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="18" spans="3:12">
-      <c r="C18" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="D18" s="5" t="s">
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C18" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="D18" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E18" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="F18" s="3"/>
-      <c r="K18" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="19" spans="3:12">
-      <c r="C19" s="13"/>
-      <c r="D19" s="5" t="s">
+      <c r="E18" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C19" s="10"/>
+      <c r="D19" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E19" s="17"/>
-      <c r="F19" s="3"/>
-      <c r="K19" t="s">
-        <v>123</v>
-      </c>
-      <c r="L19" s="10" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="20" spans="3:12">
-      <c r="C20" s="13"/>
-      <c r="D20" s="5" t="s">
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="L19" s="9"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C20" s="10"/>
+      <c r="D20" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E20" s="17"/>
-      <c r="F20" s="3"/>
-      <c r="K20" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="21" spans="3:12">
-      <c r="C21" s="13"/>
-      <c r="D21" s="5" t="s">
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C21" s="10"/>
+      <c r="D21" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C22" s="10"/>
+      <c r="D22" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C23" s="10"/>
+      <c r="D23" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C24" s="10"/>
+      <c r="D24" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="F24" s="13" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C25" s="10"/>
+      <c r="D25" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="I25" s="12"/>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C26" s="10"/>
+      <c r="D26" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E21" s="17"/>
-      <c r="F21" s="3"/>
-      <c r="K21" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="22" spans="3:12">
-      <c r="C22" s="13"/>
-      <c r="D22" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E22" s="18"/>
-      <c r="F22" s="3"/>
-      <c r="K22" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="23" spans="3:12">
-      <c r="C23" s="13"/>
-      <c r="D23" s="5" t="s">
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="I26" s="12"/>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C27" s="10"/>
+      <c r="D27" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C28" s="10"/>
+      <c r="D28" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="F28" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="H28" s="9"/>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C29" s="10"/>
+      <c r="D29" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C30" s="10"/>
+      <c r="D30" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C31" s="10"/>
+      <c r="D31" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="K23" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="24" spans="3:12">
-      <c r="C24" s="13"/>
-      <c r="D24" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="K24" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="25" spans="3:12">
-      <c r="C25" s="13"/>
-      <c r="D25" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="I25" s="15"/>
-      <c r="K25" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="26" spans="3:12">
-      <c r="C26" s="13"/>
-      <c r="D26" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="I26" s="15"/>
-      <c r="K26" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="27" spans="3:12">
-      <c r="C27" s="13"/>
-      <c r="D27" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="K27" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="28" spans="3:12">
-      <c r="C28" s="13"/>
-      <c r="D28" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="H28" s="10"/>
-      <c r="K28" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="29" spans="3:12">
-      <c r="C29" s="13"/>
-      <c r="D29" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="K29" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="30" spans="3:12">
-      <c r="C30" s="13"/>
-      <c r="D30" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="K30" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="31" spans="3:12">
-      <c r="C31" s="13"/>
-      <c r="D31" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="K31" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="32" spans="3:12">
-      <c r="C32" s="13"/>
-      <c r="D32" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="K32" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="33" spans="3:12">
-      <c r="C33" s="13"/>
-      <c r="D33" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="K33" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="34" spans="3:12">
-      <c r="C34" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="K34" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="35" spans="3:12">
-      <c r="C35" s="13"/>
-      <c r="D35" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="K35" t="s">
-        <v>138</v>
-      </c>
-      <c r="L35" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="36" spans="3:12">
-      <c r="C36" s="13"/>
-      <c r="D36" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-    </row>
-    <row r="37" spans="3:12">
-      <c r="C37" s="13"/>
-      <c r="D37" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-    </row>
-    <row r="38" spans="3:12">
-      <c r="C38" s="13"/>
-      <c r="D38" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-    </row>
-    <row r="39" spans="3:12">
-      <c r="C39" s="13"/>
-      <c r="D39" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-    </row>
-    <row r="40" spans="3:12">
-      <c r="C40" s="13"/>
-      <c r="D40" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-    </row>
-    <row r="41" spans="3:12">
-      <c r="C41" s="13"/>
-      <c r="D41" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-    </row>
-    <row r="42" spans="3:12">
-      <c r="C42" s="13"/>
-      <c r="D42" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
-    </row>
-    <row r="43" spans="3:12">
-      <c r="C43" s="13"/>
-      <c r="D43" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
-    </row>
-    <row r="44" spans="3:12">
-      <c r="C44" s="13"/>
-      <c r="D44" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
-    </row>
-    <row r="45" spans="3:12">
-      <c r="C45" s="13"/>
-      <c r="D45" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="E45" s="3"/>
-      <c r="F45" s="3"/>
-    </row>
-    <row r="46" spans="3:12">
-      <c r="C46" s="13"/>
-      <c r="D46" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="E46" s="3"/>
-      <c r="F46" s="3"/>
-    </row>
-    <row r="47" spans="3:12">
-      <c r="C47" s="13"/>
-      <c r="D47" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E47" s="3"/>
-      <c r="F47" s="3"/>
-    </row>
-    <row r="48" spans="3:12">
-      <c r="C48" s="13"/>
-      <c r="D48" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E48" s="3"/>
-      <c r="F48" s="3"/>
-    </row>
-    <row r="49" spans="3:8">
-      <c r="C49" s="13"/>
-      <c r="D49" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E49" s="3"/>
-      <c r="F49" s="3"/>
-    </row>
-    <row r="50" spans="3:8">
-      <c r="C50" s="13"/>
-      <c r="D50" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="E50" s="3"/>
-      <c r="F50" s="3"/>
-    </row>
-    <row r="51" spans="3:8">
-      <c r="C51" s="13"/>
-      <c r="D51" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E51" s="3"/>
-      <c r="F51" s="3"/>
-    </row>
-    <row r="52" spans="3:8">
-      <c r="C52" s="8"/>
-      <c r="D52" s="8"/>
-      <c r="E52" s="9"/>
-      <c r="F52" s="9"/>
-      <c r="G52" s="8"/>
-      <c r="H52" s="8"/>
-    </row>
-    <row r="53" spans="3:8">
-      <c r="D53" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="E53" s="12"/>
-      <c r="F53" s="1"/>
-      <c r="H53" s="8"/>
-    </row>
-    <row r="54" spans="3:8">
-      <c r="D54" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="E54" s="12"/>
-      <c r="F54" s="1"/>
-      <c r="H54" s="8"/>
-    </row>
-    <row r="55" spans="3:8">
-      <c r="E55" s="1"/>
-      <c r="F55" s="1"/>
-      <c r="H55" s="8"/>
-    </row>
-    <row r="56" spans="3:8">
-      <c r="E56" s="1"/>
-      <c r="F56" s="1"/>
-      <c r="H56" s="8"/>
-    </row>
-    <row r="57" spans="3:8">
-      <c r="E57" s="1"/>
-      <c r="F57" s="1"/>
-      <c r="H57" s="8"/>
-    </row>
-    <row r="58" spans="3:8">
-      <c r="E58" s="1"/>
-      <c r="F58" s="1"/>
-      <c r="H58" s="8"/>
-    </row>
-    <row r="59" spans="3:8">
-      <c r="E59" s="1"/>
-      <c r="F59" s="1"/>
-      <c r="H59" s="8"/>
-    </row>
-    <row r="60" spans="3:8">
-      <c r="E60" s="1"/>
-      <c r="F60" s="1"/>
-      <c r="H60" s="8"/>
-    </row>
-    <row r="61" spans="3:8">
-      <c r="E61" s="1"/>
-      <c r="F61" s="1"/>
-      <c r="H61" s="8"/>
-    </row>
-    <row r="62" spans="3:8">
-      <c r="C62" s="8"/>
-      <c r="D62" s="8"/>
-      <c r="E62" s="9"/>
-      <c r="F62" s="9"/>
-      <c r="G62" s="8"/>
-      <c r="H62" s="8"/>
-    </row>
-    <row r="63" spans="3:8">
-      <c r="C63" s="8"/>
-      <c r="D63" s="8"/>
-      <c r="E63" s="9"/>
-      <c r="F63" s="9"/>
-      <c r="G63" s="8"/>
-      <c r="H63" s="8"/>
-    </row>
-    <row r="64" spans="3:8">
-      <c r="E64" s="1"/>
-      <c r="F64" s="1"/>
-    </row>
-    <row r="65" spans="5:6">
-      <c r="E65" s="1"/>
-      <c r="F65" s="1"/>
-    </row>
-    <row r="66" spans="5:6">
-      <c r="E66" s="1"/>
-      <c r="F66" s="1"/>
-    </row>
-    <row r="67" spans="5:6">
-      <c r="E67" s="1"/>
-      <c r="F67" s="1"/>
-    </row>
-    <row r="68" spans="5:6">
-      <c r="E68" s="1"/>
-      <c r="F68" s="1"/>
-    </row>
-    <row r="69" spans="5:6">
-      <c r="E69" s="1"/>
-      <c r="F69" s="1"/>
-    </row>
-    <row r="70" spans="5:6">
-      <c r="E70" s="1"/>
-      <c r="F70" s="1"/>
-    </row>
-    <row r="71" spans="5:6">
-      <c r="E71" s="1"/>
-      <c r="F71" s="1"/>
-    </row>
-    <row r="72" spans="5:6">
-      <c r="E72" s="1"/>
-      <c r="F72" s="1"/>
-    </row>
-    <row r="73" spans="5:6">
-      <c r="E73" s="1"/>
-      <c r="F73" s="1"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C32" s="10"/>
+      <c r="D32" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="H32" s="7"/>
+    </row>
+    <row r="33" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="H33" s="7"/>
+    </row>
+    <row r="34" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C34" s="7"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+    </row>
+    <row r="35" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C35" s="7"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+    </row>
+    <row r="36" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+    </row>
+    <row r="37" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+    </row>
+    <row r="38" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+    </row>
+    <row r="39" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+    </row>
+    <row r="40" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+    </row>
+    <row r="41" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+    </row>
+    <row r="42" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+    </row>
+    <row r="43" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+    </row>
+    <row r="44" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+    </row>
+    <row r="45" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="12">
     <mergeCell ref="C3:C10"/>
     <mergeCell ref="C11:C17"/>
-    <mergeCell ref="C18:C33"/>
-    <mergeCell ref="C34:C51"/>
     <mergeCell ref="I25:I26"/>
     <mergeCell ref="E3:E17"/>
-    <mergeCell ref="E18:E22"/>
+    <mergeCell ref="F3:F17"/>
+    <mergeCell ref="E18:E23"/>
+    <mergeCell ref="F18:F23"/>
+    <mergeCell ref="E24:E27"/>
+    <mergeCell ref="F24:F27"/>
+    <mergeCell ref="E28:E32"/>
+    <mergeCell ref="F28:F32"/>
+    <mergeCell ref="C18:C32"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1574,7 +1151,7 @@
       <selection activeCell="I43" sqref="I43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="4" max="4" width="11.7265625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23.1796875" bestFit="1" customWidth="1"/>
@@ -1584,44 +1161,44 @@
     <col min="14" max="14" width="40.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="D3" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="L3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="D5" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="F5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I5" t="s">
+        <v>54</v>
+      </c>
+      <c r="L5" t="s">
+        <v>33</v>
+      </c>
+      <c r="M5" t="s">
         <v>45</v>
       </c>
-      <c r="G5" t="s">
+      <c r="N5" t="s">
         <v>46</v>
       </c>
-      <c r="H5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I5" t="s">
-        <v>65</v>
-      </c>
-      <c r="L5" t="s">
-        <v>44</v>
-      </c>
-      <c r="M5" t="s">
-        <v>56</v>
-      </c>
-      <c r="N5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="D6">
         <v>1</v>
       </c>
@@ -1629,7 +1206,7 @@
         <v>43</v>
       </c>
       <c r="F6" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="G6">
         <v>-45</v>
@@ -1637,20 +1214,20 @@
       <c r="H6">
         <v>67</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I6" s="5">
         <v>45992</v>
       </c>
       <c r="L6">
         <v>43</v>
       </c>
       <c r="M6" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="N6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="D7">
         <v>2</v>
       </c>
@@ -1658,7 +1235,7 @@
         <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="G7">
         <v>87</v>
@@ -1670,13 +1247,13 @@
         <v>12</v>
       </c>
       <c r="M7" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="N7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="D8">
         <v>3</v>
       </c>
@@ -1684,7 +1261,7 @@
         <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="G8">
         <v>-98</v>
@@ -1693,19 +1270,19 @@
         <v>73</v>
       </c>
       <c r="I8" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="L8">
         <v>45</v>
       </c>
       <c r="M8" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="N8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="D9">
         <v>86730</v>
       </c>
@@ -1713,7 +1290,7 @@
         <v>67</v>
       </c>
       <c r="F9" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="G9">
         <v>-34034</v>
@@ -1722,34 +1299,34 @@
         <v>52</v>
       </c>
       <c r="I9" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="L9">
         <v>67</v>
       </c>
       <c r="M9" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="N9" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="D10">
         <v>98000</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="D11">
         <v>98001</v>
       </c>
       <c r="I11" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="D12">
         <v>86730</v>
@@ -1758,7 +1335,7 @@
         <v>67</v>
       </c>
       <c r="F12" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="G12">
         <v>34034</v>
@@ -1767,40 +1344,40 @@
         <v>52</v>
       </c>
       <c r="I12" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="L12" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="L14">
         <v>2</v>
       </c>
       <c r="M14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="D15" t="s">
         <v>60</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
-      <c r="D15" t="s">
-        <v>71</v>
       </c>
       <c r="L15">
         <v>3</v>
       </c>
       <c r="M15" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="D16">
         <v>3</v>
       </c>
@@ -1808,7 +1385,7 @@
         <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="G16">
         <v>-98</v>
@@ -1817,16 +1394,16 @@
         <v>73</v>
       </c>
       <c r="I16" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="L16">
         <v>4</v>
       </c>
       <c r="M16" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="19" spans="4:16">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="4:16" x14ac:dyDescent="0.35">
       <c r="D19">
         <v>4</v>
       </c>
@@ -1837,35 +1414,35 @@
         <v>52</v>
       </c>
       <c r="I19" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="22" spans="4:16">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="4:16" x14ac:dyDescent="0.35">
       <c r="D22">
         <v>98000</v>
       </c>
       <c r="L22" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="M22" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="N22" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="O22" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="P22" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="23" spans="4:16">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="4:16" x14ac:dyDescent="0.35">
       <c r="D23">
         <v>98001</v>
       </c>
       <c r="I23" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="L23">
         <v>6738</v>
@@ -1874,16 +1451,16 @@
         <v>1</v>
       </c>
       <c r="N23" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="O23" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="P23" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="24" spans="4:16">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="24" spans="4:16" x14ac:dyDescent="0.35">
       <c r="L24">
         <v>6738</v>
       </c>
@@ -1891,38 +1468,38 @@
         <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="O24" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="P24" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="28" spans="4:16">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="4:16" x14ac:dyDescent="0.35">
       <c r="L28" s="2" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="29" spans="4:16">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="29" spans="4:16" x14ac:dyDescent="0.35">
       <c r="L29" s="2" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" s="2"/>
     </row>
-    <row r="30" spans="4:16">
+    <row r="30" spans="4:16" x14ac:dyDescent="0.35">
       <c r="D30" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="L30" s="2">
         <v>6738</v>
@@ -1931,21 +1508,21 @@
         <v>5</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="P30" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="31" spans="4:16">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="31" spans="4:16" x14ac:dyDescent="0.35">
       <c r="D31" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="G31" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="L31" s="2"/>
       <c r="M31" s="2"/>
@@ -1953,7 +1530,7 @@
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
     </row>
-    <row r="32" spans="4:16">
+    <row r="32" spans="4:16" x14ac:dyDescent="0.35">
       <c r="D32">
         <v>1</v>
       </c>
@@ -1962,10 +1539,10 @@
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
       <c r="P32" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="33" spans="4:16">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="33" spans="4:16" x14ac:dyDescent="0.35">
       <c r="D33">
         <v>2</v>
       </c>
@@ -1975,12 +1552,12 @@
       <c r="O33" s="2"/>
       <c r="P33" s="2"/>
     </row>
-    <row r="34" spans="4:16">
+    <row r="34" spans="4:16" x14ac:dyDescent="0.35">
       <c r="D34">
         <v>950328</v>
       </c>
       <c r="G34" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="L34" s="2"/>
       <c r="M34" s="2"/>
@@ -1988,7 +1565,7 @@
       <c r="O34" s="2"/>
       <c r="P34" s="2"/>
     </row>
-    <row r="35" spans="4:16">
+    <row r="35" spans="4:16" x14ac:dyDescent="0.35">
       <c r="L35" s="2">
         <v>6738</v>
       </c>
@@ -1996,23 +1573,23 @@
         <v>5</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="O35" s="2" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="P35" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="36" spans="4:16">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="36" spans="4:16" x14ac:dyDescent="0.35">
       <c r="L36" s="2"/>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
       <c r="P36" s="2"/>
     </row>
-    <row r="37" spans="4:16">
+    <row r="37" spans="4:16" x14ac:dyDescent="0.35">
       <c r="D37">
         <v>3</v>
       </c>
@@ -2020,7 +1597,7 @@
         <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="G37">
         <v>-98</v>
@@ -2029,10 +1606,10 @@
         <v>73</v>
       </c>
       <c r="I37" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="38" spans="4:16">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="38" spans="4:16" x14ac:dyDescent="0.35">
       <c r="D38">
         <v>4</v>
       </c>
@@ -2043,102 +1620,102 @@
         <v>52</v>
       </c>
       <c r="I38" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="L38" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="39" spans="4:16">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="39" spans="4:16" x14ac:dyDescent="0.35">
       <c r="D39">
         <v>98000</v>
       </c>
       <c r="L39" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="40" spans="4:16">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="40" spans="4:16" x14ac:dyDescent="0.35">
       <c r="D40">
         <v>98001</v>
       </c>
       <c r="I40" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="L40" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="41" spans="4:16">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="41" spans="4:16" x14ac:dyDescent="0.35">
       <c r="L41" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="42" spans="4:16">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="42" spans="4:16" x14ac:dyDescent="0.35">
       <c r="L42" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="43" spans="4:16">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="43" spans="4:16" x14ac:dyDescent="0.35">
       <c r="L43" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="44" spans="4:16">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="44" spans="4:16" x14ac:dyDescent="0.35">
       <c r="F44" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="G44" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="H44" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="L44" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="45" spans="4:16">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="45" spans="4:16" x14ac:dyDescent="0.35">
       <c r="L45" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="46" spans="4:16">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="46" spans="4:16" x14ac:dyDescent="0.35">
       <c r="F46" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="47" spans="4:16">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="47" spans="4:16" x14ac:dyDescent="0.35">
       <c r="F47" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="G47" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="L47" s="2" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
       <c r="O47" s="2" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="P47" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="48" spans="4:16">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="48" spans="4:16" x14ac:dyDescent="0.35">
       <c r="F48" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="L48" s="2" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
       <c r="P48" s="2"/>
     </row>
-    <row r="49" spans="12:16">
+    <row r="49" spans="12:16" x14ac:dyDescent="0.35">
       <c r="L49" s="2">
         <v>6738</v>
       </c>
@@ -2146,53 +1723,53 @@
         <v>5</v>
       </c>
       <c r="N49" s="2" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="O49" s="2" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="P49" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="50" spans="12:16">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="50" spans="12:16" x14ac:dyDescent="0.35">
       <c r="L50" s="2"/>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
       <c r="P50" s="2"/>
     </row>
-    <row r="51" spans="12:16">
+    <row r="51" spans="12:16" x14ac:dyDescent="0.35">
       <c r="L51" s="2"/>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
       <c r="P51" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="52" spans="12:16">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="52" spans="12:16" x14ac:dyDescent="0.35">
       <c r="L52" s="2"/>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
       <c r="P52" s="2"/>
     </row>
-    <row r="53" spans="12:16">
+    <row r="53" spans="12:16" x14ac:dyDescent="0.35">
       <c r="L53" s="2"/>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
       <c r="P53" s="2"/>
     </row>
-    <row r="54" spans="12:16">
+    <row r="54" spans="12:16" x14ac:dyDescent="0.35">
       <c r="L54" s="2"/>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
       <c r="P54" s="2"/>
     </row>
-    <row r="55" spans="12:16">
+    <row r="55" spans="12:16" x14ac:dyDescent="0.35">
       <c r="L55" s="2"/>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
